--- a/design/database/Conceptual Design.xlsx
+++ b/design/database/Conceptual Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turck\Documents\MSSA Cohort 8\Notes\Homework\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Embry Riddle\MSSA\Project Repo\MSSAProject\design\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7452C3-BB35-4E07-BFF4-AAF95D5C2B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB867051-DD95-4430-9C96-B7A07465A550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F5D42AC-3034-49D7-8821-D3C31C42F75D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9F5D42AC-3034-49D7-8821-D3C31C42F75D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,6 +446,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,6 +493,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,15 +548,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,15 +568,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,65 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,351 +894,336 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K7" sqref="K7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="E2" s="20" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="1"/>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="P2" s="20" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="P2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="P3" s="23" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="P3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="Q3" s="48"/>
+      <c r="R3" s="49"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="E4" s="41" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="E4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="K4" s="11" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="K4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="11" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="54"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="H6" s="5"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="H7" s="5"/>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="H8" s="5"/>
       <c r="K8" s="10"/>
       <c r="L8" s="7"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="G9" s="3"/>
       <c r="H9" s="8"/>
       <c r="K9" s="5"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="F10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="F11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="F12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="F13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="F14" s="26" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="F14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="J14" s="20" t="s">
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="J14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="F15" s="29" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="F15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="J15" s="29" t="s">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="J15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="F16" s="11" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="F16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="J16" s="32" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="J16" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="F17" s="17" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="F17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="E2:G2"/>
@@ -1251,16 +1236,31 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
